--- a/paper/data/regular/2node-final.xlsx
+++ b/paper/data/regular/2node-final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Desktop/data/regular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA9E819-CEAA-3840-969A-536B8108254E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93D54DC-3CC4-2C4B-9224-9F8423E46F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{3DD78C8B-DA27-8E48-8AF6-ABF561939037}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF44824-0135-2D46-8B46-2414C04200A6}">
   <dimension ref="A1:Z1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="176" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -995,25 +995,25 @@
         <v>15</v>
       </c>
       <c r="B10" s="4">
-        <v>23.916250000000002</v>
+        <v>25.05</v>
       </c>
       <c r="C10" s="4">
-        <v>21.087499999999999</v>
+        <v>22.33</v>
       </c>
       <c r="D10" s="4">
-        <v>23.126249999999999</v>
+        <v>23.61</v>
       </c>
       <c r="E10" s="4">
-        <v>50.533749999999998</v>
+        <v>23.9</v>
       </c>
       <c r="F10" s="4">
-        <v>39.252000000000002</v>
+        <v>24.41</v>
       </c>
       <c r="G10" s="4">
-        <v>41.267499999999998</v>
+        <v>24.99</v>
       </c>
       <c r="H10" s="4">
-        <v>33.798749999999998</v>
+        <v>27.15</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1870,19 +1870,19 @@
         <v>0.96060991105463778</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" ref="E31:E52" si="1">E3/B3</f>
+        <f t="shared" ref="E31:E51" si="1">E3/B3</f>
         <v>1.1435832274459974</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" ref="F31:F52" si="2">F3/B3</f>
+        <f t="shared" ref="F31:F51" si="2">F3/B3</f>
         <v>0.96315120711562896</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" ref="G31:G52" si="3">G3/B3</f>
+        <f t="shared" ref="G31:G51" si="3">G3/B3</f>
         <v>1.0127064803049555</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" ref="H31:H52" si="4">H3/B3</f>
+        <f t="shared" ref="H31:H51" si="4">H3/B3</f>
         <v>1.0050825921219821</v>
       </c>
       <c r="I31" s="1"/>
@@ -1913,11 +1913,11 @@
         <v>1</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" ref="C32:C52" si="5">C4/B4</f>
+        <f t="shared" ref="C32:C51" si="5">C4/B4</f>
         <v>1.0452735457063713</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" ref="D32:D52" si="6">D4/B4</f>
+        <f t="shared" ref="D32:D51" si="6">D4/B4</f>
         <v>0.91607513850415523</v>
       </c>
       <c r="E32" s="4">
@@ -2220,27 +2220,27 @@
       </c>
       <c r="C38" s="4">
         <f>C10/B10</f>
-        <v>0.88172267809543714</v>
+        <v>0.89141716566866258</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="6"/>
-        <v>0.96696806564574289</v>
+        <v>0.94251497005988016</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="1"/>
-        <v>2.1129462185752361</v>
+        <v>0.95409181636726537</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>1.6412271990801233</v>
+        <v>0.97445109780439121</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
-        <v>1.7255004442586106</v>
+        <v>0.99760479041916161</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="4"/>
-        <v>1.4132127737417026</v>
+        <v>1.0838323353293413</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="C53" s="11">
         <f>SUM(C30:C52)/23</f>
-        <v>0.88533981749076918</v>
+        <v>0.88576131695047478</v>
       </c>
       <c r="D53" s="11">
         <v>0.98320107509999999</v>

--- a/paper/data/regular/2node-final.xlsx
+++ b/paper/data/regular/2node-final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/regular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/regular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C5235A-8993-1243-A57B-A6AECBEF0627}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC833DE9-6D5C-B64D-9CCA-59AF784CC241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="460" windowWidth="28040" windowHeight="16000" xr2:uid="{3DD78C8B-DA27-8E48-8AF6-ABF561939037}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3DD78C8B-DA27-8E48-8AF6-ABF561939037}"/>
   </bookViews>
   <sheets>
     <sheet name="no hugepage" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -351,7 +353,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="smConfetti">
+            <a:pattFill prst="pct20">
               <a:fgClr>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="85000"/>
@@ -651,20 +653,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1478011775"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0.8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -700,23 +708,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Normalized Runtime</a:t>
                 </a:r>
               </a:p>
@@ -735,13 +743,19 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -765,6 +779,9 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -802,16 +819,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -825,16 +845,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -864,16 +887,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -911,7 +937,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -919,6 +949,419 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'no hugepage'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With Huge Page Support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'no hugepage'!$D$2:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'no hugepage'!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBB2-414B-8294-01C24B2408AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'no hugepage'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W/O Huge Page Support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'no hugepage'!$D$2:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'no hugepage'!$F$2:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.97615176151761529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99597855227882037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0151464713715048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1595298068849706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99404259999266786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0293025175402395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0038623005877414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0515835230801076</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.03915547024952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0207600281491906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0089186176142697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0096176586519512</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.02533744232655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EBB2-414B-8294-01C24B2408AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2121500552"/>
+        <c:axId val="2121495336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2121500552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121495336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2121495336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000"/>
+                  <a:t>Normalized Runtime</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.1972257325858955E-2"/>
+              <c:y val="0.15472776084441059"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121500552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33913322818246328"/>
+          <c:y val="7.6684865014648967E-2"/>
+          <c:w val="0.4019704061396136"/>
+          <c:h val="8.9800695543114817E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:latin typeface="Times New Roman"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1471,16 +1914,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>822325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>358139</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181864</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1505,6 +1948,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1705693</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695107</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>24354</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515A8981-6E8C-3648-9184-E7A929C18F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1512,491 +1993,155 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="regular"/>
+      <sheetName val="synthentic-application"/>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>NUMAlloc</v>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>With Thread Binding</v>
           </cell>
-          <cell r="D29" t="str">
-            <v>TcMalloc</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v xml:space="preserve">TcMalloc-NUMA </v>
-          </cell>
-          <cell r="F29" t="str">
-            <v>jemalloc</v>
-          </cell>
-          <cell r="G29" t="str">
-            <v>TBB</v>
-          </cell>
-          <cell r="H29" t="str">
-            <v>Scalloc</v>
+          <cell r="C55" t="str">
+            <v>W/O Thread Binding</v>
           </cell>
         </row>
-        <row r="30">
-          <cell r="A30" t="str">
+        <row r="56">
+          <cell r="A56" t="str">
             <v>blackscholes</v>
           </cell>
-          <cell r="C30">
-            <v>0.97238935686589101</v>
+          <cell r="B56">
+            <v>1</v>
           </cell>
-          <cell r="D30">
-            <v>0.99445112983019113</v>
-          </cell>
-          <cell r="E30">
-            <v>1.0076213397513036</v>
-          </cell>
-          <cell r="F30">
-            <v>1.0125952667468912</v>
-          </cell>
-          <cell r="G30">
-            <v>1.0056825778847438</v>
-          </cell>
-          <cell r="H30">
-            <v>1.0020056157240271</v>
+          <cell r="C56">
+            <v>1.0142842356112796</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="A31" t="str">
+        <row r="57">
+          <cell r="A57" t="str">
             <v>bodytrack</v>
           </cell>
-          <cell r="C31">
-            <v>0.94790343074968231</v>
+          <cell r="B57">
+            <v>1</v>
           </cell>
-          <cell r="D31">
-            <v>0.96060991105463778</v>
-          </cell>
-          <cell r="E31">
-            <v>1.1435832274459974</v>
-          </cell>
-          <cell r="F31">
-            <v>0.96315120711562896</v>
-          </cell>
-          <cell r="G31">
-            <v>1.0127064803049555</v>
-          </cell>
-          <cell r="H31">
-            <v>1.0050825921219821</v>
+          <cell r="C57">
+            <v>1.026351534908992</v>
           </cell>
         </row>
-        <row r="32">
-          <cell r="A32" t="str">
+        <row r="58">
+          <cell r="A58" t="str">
             <v>canneal</v>
           </cell>
-          <cell r="C32">
-            <v>0.87742382271121888</v>
+          <cell r="B58">
+            <v>1</v>
           </cell>
-          <cell r="D32">
-            <v>0.91607513850415523</v>
-          </cell>
-          <cell r="E32">
-            <v>0.9336045706371191</v>
-          </cell>
-          <cell r="F32">
-            <v>0.93493767313019394</v>
-          </cell>
-          <cell r="G32">
-            <v>1.0036790166204985</v>
-          </cell>
-          <cell r="H32">
-            <v>1.016187673130194</v>
+          <cell r="C58">
+            <v>1.0059444534727644</v>
           </cell>
         </row>
-        <row r="33">
-          <cell r="A33" t="str">
+        <row r="59">
+          <cell r="A59" t="str">
             <v>dedup</v>
           </cell>
-          <cell r="C33">
-            <v>0.97546012269938653</v>
+          <cell r="B59">
+            <v>1</v>
           </cell>
-          <cell r="D33">
-            <v>0.9480962118998929</v>
-          </cell>
-          <cell r="E33">
-            <v>1.075567241211413</v>
-          </cell>
-          <cell r="F33">
-            <v>0.95541922290388548</v>
-          </cell>
-          <cell r="G33">
-            <v>0.96319018404907975</v>
-          </cell>
-          <cell r="H33">
-            <v>0.96601421754795991</v>
+          <cell r="C59">
+            <v>1.1058257617250662</v>
           </cell>
         </row>
-        <row r="34">
-          <cell r="A34" t="str">
+        <row r="60">
+          <cell r="A60" t="str">
             <v>facesim</v>
           </cell>
-          <cell r="C34">
-            <v>1.0480623130687907</v>
+          <cell r="B60">
+            <v>1</v>
           </cell>
-          <cell r="D34">
-            <v>1.0459111047134653</v>
-          </cell>
-          <cell r="E34">
-            <v>1.0204804631895461</v>
-          </cell>
-          <cell r="F34">
-            <v>1.0179294019800713</v>
-          </cell>
-          <cell r="G34">
-            <v>1.0226636597732035</v>
-          </cell>
-          <cell r="H34">
-            <v>1.0168657933880332</v>
+          <cell r="C60">
+            <v>1.0340147167936178</v>
           </cell>
         </row>
-        <row r="35">
-          <cell r="A35" t="str">
+        <row r="61">
+          <cell r="A61" t="str">
             <v>ferret</v>
           </cell>
-          <cell r="C35">
-            <v>1.0626134772008091</v>
+          <cell r="B61">
+            <v>1</v>
           </cell>
-          <cell r="D35">
-            <v>1.0383877159309021</v>
-          </cell>
-          <cell r="E35">
-            <v>1.0325776832494682</v>
-          </cell>
-          <cell r="F35">
-            <v>1.0322768065570367</v>
-          </cell>
-          <cell r="G35">
-            <v>1.0038906468848887</v>
-          </cell>
-          <cell r="H35">
-            <v>1.0306064221611246</v>
+          <cell r="C61">
+            <v>1.0013377237950194</v>
           </cell>
         </row>
-        <row r="36">
-          <cell r="A36" t="str">
+        <row r="62">
+          <cell r="A62" t="str">
             <v>fluidanimate</v>
           </cell>
-          <cell r="C36">
-            <v>0.86545623836126628</v>
+          <cell r="B62">
+            <v>1</v>
           </cell>
-          <cell r="D36">
-            <v>0.99329608938547487</v>
-          </cell>
-          <cell r="E36">
-            <v>1.0004655493482308</v>
-          </cell>
-          <cell r="F36">
-            <v>0.99515828677839846</v>
-          </cell>
-          <cell r="G36">
-            <v>0.92923649906890127</v>
-          </cell>
-          <cell r="H36">
-            <v>1.0268156424581005</v>
+          <cell r="C62">
+            <v>4.4554076537516032</v>
           </cell>
         </row>
-        <row r="37">
-          <cell r="A37" t="str">
+        <row r="63">
+          <cell r="A63" t="str">
             <v>raytrace</v>
           </cell>
-          <cell r="C37">
-            <v>0.85557796741908454</v>
+          <cell r="B63">
+            <v>1</v>
           </cell>
-          <cell r="D37">
-            <v>0.802234290147401</v>
-          </cell>
-          <cell r="E37">
-            <v>0.81244375484871989</v>
-          </cell>
-          <cell r="F37">
-            <v>0.96369899146625293</v>
-          </cell>
-          <cell r="G37">
-            <v>0.99543832428238932</v>
-          </cell>
-          <cell r="H37">
-            <v>0.86755624515128005</v>
+          <cell r="C63">
+            <v>0.99880979369304002</v>
           </cell>
         </row>
-        <row r="38">
-          <cell r="A38" t="str">
+        <row r="64">
+          <cell r="A64" t="str">
             <v>streamcluster</v>
           </cell>
-          <cell r="C38">
-            <v>0.89141716566866258</v>
+          <cell r="B64">
+            <v>1</v>
           </cell>
-          <cell r="D38">
-            <v>0.94251497005988016</v>
-          </cell>
-          <cell r="E38">
-            <v>0.95409181636726537</v>
-          </cell>
-          <cell r="F38">
-            <v>0.97445109780439121</v>
-          </cell>
-          <cell r="G38">
-            <v>0.99760479041916161</v>
-          </cell>
-          <cell r="H38">
-            <v>1.0838323353293413</v>
+          <cell r="C64">
+            <v>1.2403178808116557</v>
           </cell>
         </row>
-        <row r="39">
-          <cell r="A39" t="str">
+        <row r="65">
+          <cell r="A65" t="str">
             <v>swaptions</v>
           </cell>
-          <cell r="C39">
-            <v>0.99525616698292219</v>
+          <cell r="B65">
+            <v>1</v>
           </cell>
-          <cell r="D39">
-            <v>1.0277729860272555</v>
-          </cell>
-          <cell r="E39">
-            <v>1.00060376056581</v>
-          </cell>
-          <cell r="F39">
-            <v>0.99265137139899939</v>
-          </cell>
-          <cell r="G39">
-            <v>0.99741245471795759</v>
-          </cell>
-          <cell r="H39">
-            <v>0.99335863377609113</v>
+          <cell r="C65">
+            <v>1.1678146526618907</v>
           </cell>
         </row>
-        <row r="40">
-          <cell r="A40" t="str">
+        <row r="66">
+          <cell r="A66" t="str">
             <v>vips</v>
           </cell>
-          <cell r="C40">
-            <v>0.93550059241706163</v>
+          <cell r="B66">
+            <v>1</v>
           </cell>
-          <cell r="D40">
-            <v>0.99200236966824651</v>
-          </cell>
-          <cell r="E40">
-            <v>1.0494668246445498</v>
-          </cell>
-          <cell r="F40">
-            <v>1.0039691943127962</v>
-          </cell>
-          <cell r="G40">
-            <v>0.97941350710900477</v>
-          </cell>
-          <cell r="H40">
-            <v>1.0027399289099526</v>
+          <cell r="C66">
+            <v>1.0123588648521649</v>
           </cell>
         </row>
-        <row r="41">
-          <cell r="A41" t="str">
+        <row r="67">
+          <cell r="A67" t="str">
             <v>x264</v>
           </cell>
-          <cell r="C41">
-            <v>0.91729246487867178</v>
+          <cell r="B67">
+            <v>1</v>
           </cell>
-          <cell r="D41">
-            <v>0.99989782886334611</v>
-          </cell>
-          <cell r="E41">
-            <v>0.98978288633461042</v>
-          </cell>
-          <cell r="F41">
-            <v>0.99473818646232437</v>
-          </cell>
-          <cell r="G41">
-            <v>1.0045977011494254</v>
-          </cell>
-          <cell r="H41">
-            <v>0.97042145593869733</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>Aget</v>
-          </cell>
-          <cell r="C43">
-            <v>1.0179410508329774</v>
-          </cell>
-          <cell r="D43">
-            <v>1.0226398974797095</v>
-          </cell>
-          <cell r="E43">
-            <v>1.0098248611704399</v>
-          </cell>
-          <cell r="F43">
-            <v>0.99752242631354127</v>
-          </cell>
-          <cell r="G43">
-            <v>1.0085433575395131</v>
-          </cell>
-          <cell r="H43">
-            <v>1.0038445108927809</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>Pbzip2</v>
-          </cell>
-          <cell r="C44">
-            <v>0.65956313265849764</v>
-          </cell>
-          <cell r="D44">
-            <v>0.98668087373468305</v>
-          </cell>
-          <cell r="E44">
-            <v>1.0095897709110282</v>
-          </cell>
-          <cell r="F44">
-            <v>0.96750133191262655</v>
-          </cell>
-          <cell r="G44">
-            <v>1.0026638252530635</v>
-          </cell>
-          <cell r="H44">
-            <v>0.94725625998934482</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>Pfscan</v>
-          </cell>
-          <cell r="C45">
-            <v>0.97616665280951398</v>
-          </cell>
-          <cell r="D45">
-            <v>0.99997133002864136</v>
-          </cell>
-          <cell r="E45">
-            <v>1.0000028669971359</v>
-          </cell>
-          <cell r="F45">
-            <v>1.0001599784401816</v>
-          </cell>
-          <cell r="G45">
-            <v>0.99115531383584154</v>
-          </cell>
-          <cell r="H45">
-            <v>1.0005389954615436</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>SQLite</v>
-          </cell>
-          <cell r="C46">
-            <v>0.99400879183210433</v>
-          </cell>
-          <cell r="D46">
-            <v>0.9888152297220647</v>
-          </cell>
-          <cell r="E46">
-            <v>0.98592597844583107</v>
-          </cell>
-          <cell r="F46">
-            <v>0.99505104934770294</v>
-          </cell>
-          <cell r="G46">
-            <v>1.0013648610323311</v>
-          </cell>
-          <cell r="H46">
-            <v>1.0433919455473626</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>Apache</v>
-          </cell>
-          <cell r="C47">
-            <v>1.0654938681387793</v>
-          </cell>
-          <cell r="D47">
-            <v>0.99848013696237037</v>
-          </cell>
-          <cell r="E47">
-            <v>0.93497082561755351</v>
-          </cell>
-          <cell r="F47">
-            <v>1.0701198420740017</v>
-          </cell>
-          <cell r="G47">
-            <v>1.0950001746969009</v>
-          </cell>
-          <cell r="H47">
-            <v>1.1034450228852941</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>Memcached</v>
-          </cell>
-          <cell r="C48">
-            <v>0.88977180114099419</v>
-          </cell>
-          <cell r="D48">
-            <v>0.99592502037489805</v>
-          </cell>
-          <cell r="E48">
-            <v>1.154645476772616</v>
-          </cell>
-          <cell r="F48">
-            <v>1.0242461287693561</v>
-          </cell>
-          <cell r="G48">
-            <v>1.0922982885085573</v>
-          </cell>
-          <cell r="H48">
-            <v>0.98247758761206183</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>MySQL</v>
-          </cell>
-          <cell r="C49">
-            <v>0.99232780382257479</v>
-          </cell>
-          <cell r="D49">
-            <v>0.97923278038225747</v>
-          </cell>
-          <cell r="E49">
-            <v>0.977866931121529</v>
-          </cell>
-          <cell r="F49">
-            <v>1.0199828705373242</v>
-          </cell>
-          <cell r="G49">
-            <v>0.99233681932924622</v>
-          </cell>
-          <cell r="H49">
-            <v>0.71797692030292104</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>AVERAGE</v>
-          </cell>
-          <cell r="C51">
-            <v>0.94419085369783651</v>
-          </cell>
-          <cell r="D51">
-            <v>0.98068394814576176</v>
-          </cell>
-          <cell r="E51">
-            <v>1.0049008330857983</v>
-          </cell>
-          <cell r="F51">
-            <v>0.99555580705534763</v>
-          </cell>
-          <cell r="G51">
-            <v>1.0052041306557717</v>
-          </cell>
-          <cell r="H51">
-            <v>0.98844304201726796</v>
+          <cell r="C67">
+            <v>1.0953594420542094</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2301,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF44824-0135-2D46-8B46-2414C04200A6}">
   <dimension ref="A1:V922"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2360,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <f>C2/B2</f>
+        <f t="shared" ref="F2:F13" si="0">C2/B2</f>
         <v>0.97615176151761529</v>
       </c>
       <c r="G2" s="1"/>
@@ -2391,14 +2536,14 @@
         <v>7.43</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D13" si="0">A3</f>
+        <f t="shared" ref="D3:D13" si="1">A3</f>
         <v>bodytrack</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.99597855227882037</v>
       </c>
       <c r="G3" s="1"/>
@@ -2429,14 +2574,14 @@
         <v>30.495000000000001</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>canneal</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>1.0151464713715048</v>
       </c>
       <c r="G4" s="1"/>
@@ -2467,14 +2612,14 @@
         <v>13.81</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>dedup</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>1.1595298068849706</v>
       </c>
       <c r="G5" s="1"/>
@@ -2505,14 +2650,14 @@
         <v>162.68700000000001</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>facesim</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>0.99404259999266786</v>
       </c>
       <c r="G6" s="1"/>
@@ -2543,14 +2688,14 @@
         <v>24.94</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ferret</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>1.0293025175402395</v>
       </c>
       <c r="G7" s="1"/>
@@ -2581,14 +2726,14 @@
         <v>11.956</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fluidanimate</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>1.0038623005877414</v>
       </c>
       <c r="G8" s="1"/>
@@ -2619,14 +2764,14 @@
         <v>50.802</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>raytrace</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>1.0515835230801076</v>
       </c>
       <c r="G9" s="1"/>
@@ -2657,14 +2802,14 @@
         <v>21.655999999999999</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>streamcluster</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>1.03915547024952</v>
       </c>
       <c r="G10" s="1"/>
@@ -2695,14 +2840,14 @@
         <v>14.505000000000001</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>swaptions</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>1.0207600281491906</v>
       </c>
       <c r="G11" s="1"/>
@@ -2733,14 +2878,14 @@
         <v>18.100000000000001</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>vips</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>1.0089186176142697</v>
       </c>
       <c r="G12" s="1"/>
@@ -2771,14 +2916,14 @@
         <v>12.807</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>x264</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f>C13/B13</f>
+        <f t="shared" si="0"/>
         <v>1.0096176586519512</v>
       </c>
       <c r="G13" s="1"/>
